--- a/medicine/Psychotrope/Mollard_(cépage)/Mollard_(cépage).xlsx
+++ b/medicine/Psychotrope/Mollard_(cépage)/Mollard_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mollard_(c%C3%A9page)</t>
+          <t>Mollard_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le mollard N[1]est un cépage noir de cuve originaire des Hautes-Alpes. Il est une des bases de l'encépagement des vins de pays Hautes-alpes (IGP). 
+Le mollard Nest un cépage noir de cuve originaire des Hautes-Alpes. Il est une des bases de l'encépagement des vins de pays Hautes-alpes (IGP). 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mollard_(c%C3%A9page)</t>
+          <t>Mollard_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Cépage très ancien dont les ampélographes situent l'origine dans les Hautes-Alpes[2].
-Aire de répartition
-Il se rencontre dans les vignobles de la haute vallée de la Durance, dans le Gapençais et l'Embrunais[2]. 
-Génétique
-Les analyses génétiques ont montré qu'il était très certainement un descendant du gouais B[3]. 
-Clones
-Il est inscrit au catalogue officiel des variétés de vigne dans la liste A1[2]. Ce cépage a deux clones agréés : les 993 et 996[3]. 
-Mutation
-L'existence du mollard blanc B montre qu'au cours des siècles, des mutations se sont produites. C'est la seule variété conservée en collection.
-Synonymes
-Il est aussi dénommé : molar, tallardier, chaliant, cholion, plant de Veynes (Hautes-Alpes), beissier, boissier[2].
-Dans le vignoble de Rioja, un cépage du même nom est cultivé, le molar negro, mais c'est du carignan N[4]. Dans la péninsule Ibérique, le Listan negro est aussi connu sous les noms de molar ou mollar, ou avec les qualificatifs : Mollar de Cadiz, Mollar de Granada, Mollar de Huelva, Mollar Morado, Mollar Negro, Mollar Prieto, Mollar Sevillano, Mollar Zucari[5].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cépage très ancien dont les ampélographes situent l'origine dans les Hautes-Alpes.
 </t>
         </is>
       </c>
@@ -537,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mollard_(c%C3%A9page)</t>
+          <t>Mollard_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,17 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractères ampélographiques</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sarment
-Le Mollard a le port érigé et les nœuds des sarments moyennement écartés[6]. Les pédoncules, de moyenne force, ont une partie lignifiée et les pédicelles sont courts et assez forts[2].
-Feuille
-Ses feuilles, de moyenne grandeur, sont peu lobées, à dents mousses, duvetées à leur face inférieure[6]. Les pétioles sont légèrement teintés de rouge[2].
-Grappe
-Sa grappe est allongée, cylindro-coniques, garnie de grains arrondis, gros, peu serrés et plus ou moins compacts. Les baies, à peau mince assez résistante, sont d'un noir bleuté, très pruinée, à la chair ferme et juteuse[2],[6].
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se rencontre dans les vignobles de la haute vallée de la Durance, dans le Gapençais et l'Embrunais. 
 </t>
         </is>
       </c>
@@ -573,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mollard_(c%C3%A9page)</t>
+          <t>Mollard_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,19 +595,389 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses génétiques ont montré qu'il était très certainement un descendant du gouais B. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Clones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inscrit au catalogue officiel des variétés de vigne dans la liste A1. Ce cépage a deux clones agréés : les 993 et 996. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mutation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'existence du mollard blanc B montre qu'au cours des siècles, des mutations se sont produites. C'est la seule variété conservée en collection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est aussi dénommé : molar, tallardier, chaliant, cholion, plant de Veynes (Hautes-Alpes), beissier, boissier.
+Dans le vignoble de Rioja, un cépage du même nom est cultivé, le molar negro, mais c'est du carignan N. Dans la péninsule Ibérique, le Listan negro est aussi connu sous les noms de molar ou mollar, ou avec les qualificatifs : Mollar de Cadiz, Mollar de Granada, Mollar de Huelva, Mollar Morado, Mollar Negro, Mollar Prieto, Mollar Sevillano, Mollar Zucari.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sarment</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mollard a le port érigé et les nœuds des sarments moyennement écartés. Les pédoncules, de moyenne force, ont une partie lignifiée et les pédicelles sont courts et assez forts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Feuille</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles, de moyenne grandeur, sont peu lobées, à dents mousses, duvetées à leur face inférieure. Les pétioles sont légèrement teintés de rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Grappe</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa grappe est allongée, cylindro-coniques, garnie de grains arrondis, gros, peu serrés et plus ou moins compacts. Les baies, à peau mince assez résistante, sont d'un noir bleuté, très pruinée, à la chair ferme et juteuse,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Se conduit très bien en gobelet avec une taille courte de préférence. Le débourrement est tardif : 7 jours après le chasselas, et il est de maturité 2e époque tardive : 3 semaines et demie à 4 semaines après le chasselas[3].
-Sensibilité aux maladies
-Ce cépage est sensible à l'oïdium et au mildiou[3], il peut être atteint par la pourriture grise[2].
-Sensibilité climatique
-Il est assez résistant aux gelées d'hiver[2].
-Potentiel œnologique
-Le Mollard N permet d’élaborer des vins frais, légers, bien colorés[3], avec une belle couleur grenat et moyennement alcoolique[2], car l'accumulation des sucres de ce cépage reste modéré[3]. Une bonne acidité sert de support à des arômes d'épices, de vanille et de petits fruits rouges. Ce qui donne un vin agréable à boire et pouvant se garder quelques années[2].
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se conduit très bien en gobelet avec une taille courte de préférence. Le débourrement est tardif : 7 jours après le chasselas, et il est de maturité 2e époque tardive : 3 semaines et demie à 4 semaines après le chasselas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage est sensible à l'oïdium et au mildiou, il peut être atteint par la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sensibilité climatique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est assez résistant aux gelées d'hiver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mollard_(cépage)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mollard_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Potentiel œnologique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mollard N permet d’élaborer des vins frais, légers, bien colorés, avec une belle couleur grenat et moyennement alcoolique, car l'accumulation des sucres de ce cépage reste modéré. Une bonne acidité sert de support à des arômes d'épices, de vanille et de petits fruits rouges. Ce qui donne un vin agréable à boire et pouvant se garder quelques années.
 </t>
         </is>
       </c>
